--- a/data/Subset1_WithDialogActs/Math HK1 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math HK1 transcript.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1865,12 +1865,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2453,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2747,12 +2747,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3293,12 +3293,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3507,12 +3507,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3889,12 +3889,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3973,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4229,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4607,12 +4607,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4649,12 +4649,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4901,12 +4901,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5111,12 +5111,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5153,12 +5153,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5195,12 +5195,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5619,12 +5619,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6543,12 +6543,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6711,12 +6711,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7803,12 +7803,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8055,12 +8055,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8139,12 +8139,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8223,12 +8223,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8265,12 +8265,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8983,12 +8983,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9109,12 +9109,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9155,12 +9155,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9197,12 +9197,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9281,12 +9281,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10029,12 +10029,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10279,12 +10279,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10451,12 +10451,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10535,12 +10535,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10707,12 +10707,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10875,12 +10875,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10917,12 +10917,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10959,12 +10959,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11001,12 +11001,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11043,12 +11043,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11295,12 +11295,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11929,12 +11929,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12097,12 +12097,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12139,12 +12139,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12349,12 +12349,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13149,12 +13149,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13653,12 +13653,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14115,12 +14115,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14535,12 +14535,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14577,12 +14577,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14619,12 +14619,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14745,12 +14745,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15249,12 +15249,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15589,12 +15589,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15631,12 +15631,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15715,12 +15715,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15757,12 +15757,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15799,12 +15799,12 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16471,12 +16471,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16681,12 +16681,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16849,12 +16849,12 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16933,12 +16933,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17903,12 +17903,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17945,12 +17945,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18075,12 +18075,12 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18117,12 +18117,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18289,12 +18289,12 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18331,12 +18331,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18633,12 +18633,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18675,12 +18675,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18889,12 +18889,12 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18931,12 +18931,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19099,12 +19099,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19447,12 +19447,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19489,12 +19489,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19703,12 +19703,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19829,12 +19829,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20207,12 +20207,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21383,12 +21383,12 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21467,12 +21467,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21593,12 +21593,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
